--- a/Module1/Lab1Start v5.xlsx
+++ b/Module1/Lab1Start v5.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\Work\GitHub\Introduction-to-Data-Analysis-using-Excel\Module1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Revenue</t>
   </si>
@@ -54,12 +49,15 @@
   </si>
   <si>
     <t>Bikes</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,7 +406,7 @@
   <dimension ref="B3:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +521,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>

--- a/Module1/Lab1Start v5.xlsx
+++ b/Module1/Lab1Start v5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Revenue</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
   </si>
 </sst>
 </file>
@@ -104,6 +107,1022 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>3384215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4293592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3285954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4154231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8964888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9175983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9858787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7611243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14799083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11372150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>1997035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2247889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2187004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="34044544"/>
+        <c:axId val="34052736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="34044544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34052736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34052736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34044544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$10:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15117992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61782134</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8370882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Australia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Canada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>27975547</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21302059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10646196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8978596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8432872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7935738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="33507584"/>
+        <c:axId val="33517568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33507584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33517568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33517568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33507584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accessories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>3384215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4293592</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3285954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4154231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bikes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8964888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9175983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9858787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7611243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14799083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11372150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>1997035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2247889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1938954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2187004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Revenue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8964888</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9175983</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15240037</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14152724</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20023991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17713385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="35887744"/>
+        <c:axId val="35897728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="35887744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35897728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="35897728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="35887744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,7 +1414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +1510,35 @@
         <v>2187004</v>
       </c>
     </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f>C4+C5+C6</f>
+        <v>8964888</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:H7" si="0">D4+D5+D6</f>
+        <v>9175983</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>15240037</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>14152724</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>20023991</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>17713385</v>
+      </c>
+    </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>0</v>
@@ -530,26 +1578,26 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>21302059</v>
+        <v>27975547</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>7935738</v>
+        <v>21302059</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>8432872</v>
+        <v>10646196</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -562,21 +1610,25 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>10646196</v>
+        <v>8432872</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>27975547</v>
+        <v>7935738</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B16:C21">
+    <sortCondition descending="1" ref="C16:C21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>